--- a/Location Details/S Meridian St, Indianapolis, IN 46225_sport.xlsx
+++ b/Location Details/S Meridian St, Indianapolis, IN 46225_sport.xlsx
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -544,10 +544,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +574,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -678,15 +678,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="F11" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>4.6</v>
       </c>
       <c r="F22" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -952,7 +952,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1049,12 +1049,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Camby - Heartland Crossing</t>
+          <t>Sport Clips Haircuts of Castleton Crossing</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="F28" t="n">
         <v>126</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Castleton Crossing</t>
+          <t>Sport Clips Haircuts of Geist Oaklandon</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="F29" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1093,20 +1093,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Geist Oaklandon</t>
+          <t>Sport Clips Haircuts of German Church Shops</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="F30" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1115,20 +1115,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of German Church Shops</t>
+          <t>Sport Clips Haircuts of Greenwood</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="F31" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Greenwood</t>
+          <t>Sport Clips Haircuts of Greenwood Plaza</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1145,12 +1145,12 @@
         <v>4.3</v>
       </c>
       <c r="F32" t="n">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1159,20 +1159,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Greenwood Plaza</t>
+          <t>Sport Clips Haircuts of Greenwood South</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1181,20 +1181,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Greenwood South</t>
+          <t>Sport Clips Haircuts of Greenwood Springs</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="F34" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1203,20 +1203,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Greenwood Springs</t>
+          <t>Sport Clips Haircuts of North Keystone</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="F35" t="n">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1225,20 +1225,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of North Keystone</t>
+          <t>Sport Clips Haircuts of Northfield Commons</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1247,20 +1247,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Northfield Commons</t>
+          <t>Sport Clips Haircuts of Plainfield</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="F37" t="n">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1269,20 +1269,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Plainfield</t>
+          <t>Sport Clips Haircuts of Shadeland Place</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="F38" t="n">
-        <v>167</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Shadeland Place</t>
+          <t>Sport Clips Haircuts of South Bluff Crossing</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1299,12 +1299,12 @@
         <v>4.3</v>
       </c>
       <c r="F39" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of South Bluff Crossing</t>
+          <t>Sport Graphics Inc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1321,12 +1321,12 @@
         <v>4.3</v>
       </c>
       <c r="F40" t="n">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1335,20 +1335,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sport Graphics Inc</t>
+          <t>Sport Vision</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1357,20 +1357,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sport Vision</t>
+          <t>Sport'n Image</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1379,20 +1379,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sport'n Image</t>
+          <t>Sport.ly</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sport.ly</t>
+          <t>Sports Corporation Inc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1423,20 +1423,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sports Corporation Inc</t>
+          <t>Sports Plus</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1445,20 +1445,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sports Plus</t>
+          <t>Sports Spot</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="F46" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1467,20 +1467,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sports Spot</t>
+          <t>Sports Travel &amp; Tickets</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
